--- a/AAII_Financials/Yearly/KAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KAL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>KAL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,26 +711,26 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,11 +738,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -765,11 +765,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -860,25 +860,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -887,25 +887,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>43300</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -950,11 +950,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-40500</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-8500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -990,11 +990,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-900</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-37300</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>-8100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-41300</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,25 +1099,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-40000</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-40100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1314,11 +1314,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>900</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-40100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-40100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>113400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,25 +1535,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1562,25 +1562,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>21100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>113900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>146600</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,25 +1670,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>183400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>36000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1697,25 +1697,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>140800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147300</v>
+        <v>350000</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>153700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,25 +1885,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>14700</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>68400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5200</v>
+        <v>83100</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>9600</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4500</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>142100</v>
+        <v>266900</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>144100</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-40100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,25 +2510,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-24800</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-9600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,25 +2712,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-82900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-20800</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-146600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-132500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-20800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>147500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>61200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>140400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>700</v>
+        <v>-97200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
